--- a/meeting.xlsx
+++ b/meeting.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:T82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,7 +942,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023-05-02T18:17:33.119Z</t>
+          <t>2024-10-29T18:03:23.663Z</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1438,42 +1438,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2023-08-29T19:16:06.037Z</t>
+          <t>2024-10-31T15:56:42.689Z</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-07-13T16:53:10.732Z</t>
+          <t>2024-10-31T15:56:42.689Z</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>hs_contact_first_outreach_date</t>
+          <t>hs_campaign_guid</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Contact first outreach date</t>
+          <t>Campaign guid</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>The first outreach date of the associated contact</t>
+          <t>Campaign guid rolled up from associated Campaign</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>meetingeventinformation</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
@@ -1518,42 +1518,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2023-08-10T16:36:16.861Z</t>
+          <t>2023-08-29T19:16:06.037Z</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:17.340Z</t>
+          <t>2023-07-13T16:53:10.732Z</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>hs_created_by</t>
+          <t>hs_contact_first_outreach_date</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Activity created by</t>
+          <t>Contact first outreach date</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>date</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>The user who created the engagement</t>
+          <t>The first outreach date of the associated contact</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>engagement</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
@@ -1593,46 +1593,42 @@
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>hs_created_by_user_id</t>
-        </is>
-      </c>
+      <c r="T14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-05-28T05:20:41.761Z</t>
+          <t>2023-08-10T16:36:16.861Z</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:17.727Z</t>
+          <t>2019-12-12T14:41:17.340Z</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>hs_createdate</t>
+          <t>hs_created_by</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Create date</t>
+          <t>Activity created by</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>number</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>The date that an engagement was created</t>
+          <t>The user who created the engagement</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1652,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
@@ -1677,42 +1673,46 @@
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>hs_created_by_user_id</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2023-05-02T18:17:33.119Z</t>
+          <t>2022-05-28T05:20:41.761Z</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:17.517Z</t>
+          <t>2019-12-12T14:41:17.727Z</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>hs_engagement_source</t>
+          <t>hs_createdate</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Engagement Source</t>
+          <t>Create date</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>date</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>The source that created this engagement</t>
+          <t>The date that an engagement was created</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1738,14 +1738,14 @@
         <v>0</v>
       </c>
       <c r="N16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': False}</t>
+          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': True}</t>
         </is>
       </c>
       <c r="Q16" t="b">
@@ -1767,17 +1767,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:17.387Z</t>
+          <t>2019-12-12T14:41:17.517Z</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>hs_engagement_source_id</t>
+          <t>hs_engagement_source</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Engagement Source ID</t>
+          <t>Engagement Source</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>The specific ID of the process that created this engagement</t>
+          <t>The source that created this engagement</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1842,22 +1842,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-06-04T17:36:57.481Z</t>
+          <t>2023-05-02T18:17:33.119Z</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-05-31T16:34:49.118Z</t>
+          <t>2019-12-12T14:41:17.387Z</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>hs_external_calendar_id</t>
+          <t>hs_engagement_source_id</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>External Calendar Id</t>
+          <t>Engagement Source ID</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1872,12 +1872,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Unique external identifier for calendar event</t>
+          <t>The specific ID of the process that created this engagement</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>meetingeventinformation</t>
+          <t>engagement</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="b">
         <v>1</v>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': True}</t>
+          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': False}</t>
         </is>
       </c>
       <c r="Q18" t="b">
@@ -1922,22 +1922,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2023-05-02T18:17:33.119Z</t>
+          <t>2024-06-04T17:36:57.481Z</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:17.044Z</t>
+          <t>2024-05-31T16:34:49.118Z</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>hs_follow_up_action</t>
+          <t>hs_external_calendar_id</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Follow up action</t>
+          <t>External Calendar Id</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1952,12 +1952,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>What action should be performed during follow up</t>
+          <t>Unique external identifier for calendar event</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>engagement</t>
+          <t>meetingeventinformation</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="b">
         <v>1</v>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': False}</t>
+          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': True}</t>
         </is>
       </c>
       <c r="Q19" t="b">
@@ -2002,42 +2002,42 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-07-16T20:35:22.190Z</t>
+          <t>2023-05-02T18:17:33.119Z</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-07-12T14:18:58.140Z</t>
+          <t>2019-12-12T14:41:17.044Z</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>hs_follow_up_tasks_remaining</t>
+          <t>hs_follow_up_action</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Follow-up tasks remaining</t>
+          <t>Follow up action</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>calculation_rollup</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>The number of follow-up tasks remaining, including MEETING_FOLLOW_UP_EMAIL and UPDATE_MEETING_NOTES</t>
+          <t>What action should be performed during follow up</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>meetingeventinformation</t>
+          <t>engagement</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2049,7 +2049,7 @@
         <v>-1</v>
       </c>
       <c r="K20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': True}</t>
+          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': False}</t>
         </is>
       </c>
       <c r="Q20" t="b">
@@ -2082,54 +2082,54 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2023-05-02T18:17:33.119Z</t>
+          <t>2024-07-16T20:35:22.190Z</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:17.582Z</t>
+          <t>2024-07-12T14:18:58.140Z</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>hs_gdpr_deleted</t>
+          <t>hs_follow_up_tasks_remaining</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>GDPR deleted</t>
+          <t>Follow-up tasks remaining</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>number</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>booleancheckbox</t>
+          <t>calculation_rollup</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Indicates the body of this engagement has been cleared because of a GDPR delete request</t>
+          <t>The number of follow-up tasks remaining, including MEETING_FOLLOW_UP_EMAIL and UPDATE_MEETING_NOTES</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>engagement</t>
+          <t>meetingeventinformation</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[{'label': 'True', 'value': 'true', 'displayOrder': 0, 'hidden': False}, {'label': 'False', 'value': 'false', 'displayOrder': 1, 'hidden': False}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="J21" t="n">
         <v>-1</v>
       </c>
       <c r="K21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -2162,47 +2162,47 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2023-10-12T17:05:04.678Z</t>
+          <t>2023-05-02T18:17:33.119Z</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-10-12T17:05:04.678Z</t>
+          <t>2019-12-12T14:41:17.582Z</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>hs_guest_emails</t>
+          <t>hs_gdpr_deleted</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Guest Emails</t>
+          <t>GDPR deleted</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>enumeration</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>booleancheckbox</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Guest emails on a meeting booking</t>
+          <t>Indicates the body of this engagement has been cleared because of a GDPR delete request</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>engagement</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'label': 'True', 'value': 'true', 'displayOrder': 0, 'hidden': False}, {'label': 'False', 'value': 'false', 'displayOrder': 1, 'hidden': False}]</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
@@ -2242,37 +2242,37 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2022-05-28T05:21:58.290Z</t>
+          <t>2024-11-05T16:39:32.857Z</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021-05-27T15:32:44.756Z</t>
+          <t>2023-10-12T17:05:04.678Z</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>hs_i_cal_uid</t>
+          <t>hs_guest_emails</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>iCalUid</t>
+          <t>Guest Emails</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enumeration</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>select</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>The iCalUid of the synced event</t>
+          <t>Guest emails on a meeting booking</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="b">
         <v>1</v>
@@ -2322,37 +2322,37 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2023-08-28T16:19:31.685Z</t>
+          <t>2022-05-28T05:21:58.290Z</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-08-28T16:19:31.685Z</t>
+          <t>2021-05-27T15:32:44.756Z</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>hs_include_description_in_reminder</t>
+          <t>hs_i_cal_uid</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Should include description in reminder</t>
+          <t>iCalUid</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>booleancheckbox</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Indicates whether or not the prosepct reminders should include the meeting description</t>
+          <t>The iCalUid of the synced event</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[{'label': 'Yes', 'value': 'true', 'displayOrder': 0, 'hidden': False}, {'label': 'No', 'value': 'false', 'displayOrder': 1, 'hidden': False}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': False}</t>
+          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': True}</t>
         </is>
       </c>
       <c r="Q24" t="b">
@@ -2402,37 +2402,37 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2023-08-14T14:15:08.343Z</t>
+          <t>2023-08-28T16:19:31.685Z</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2020-09-11T18:20:47.857Z</t>
+          <t>2023-08-28T16:19:31.685Z</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>hs_internal_meeting_notes</t>
+          <t>hs_include_description_in_reminder</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Internal Meeting Notes</t>
+          <t>Should include description in reminder</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>html</t>
+          <t>booleancheckbox</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>The internal notes from the meeting</t>
+          <t>Indicates whether or not the prosepct reminders should include the meeting description</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'label': 'Yes', 'value': 'true', 'displayOrder': 0, 'hidden': False}, {'label': 'No', 'value': 'false', 'displayOrder': 1, 'hidden': False}]</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
@@ -2482,42 +2482,42 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2022-05-28T05:22:29.049Z</t>
+          <t>2023-08-14T14:15:08.343Z</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:16.918Z</t>
+          <t>2020-09-11T18:20:47.857Z</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>hs_lastmodifieddate</t>
+          <t>hs_internal_meeting_notes</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Last modified date</t>
+          <t>Internal Meeting Notes</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>html</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>The date any property on this engagement was modified</t>
+          <t>The internal notes from the meeting</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>engagement</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': True}</t>
+          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': False}</t>
         </is>
       </c>
       <c r="Q26" t="b">
@@ -2562,42 +2562,42 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2023-05-02T18:17:33.119Z</t>
+          <t>2022-05-28T05:22:29.049Z</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:17.489Z</t>
+          <t>2019-12-12T14:41:16.918Z</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>hs_meeting_body</t>
+          <t>hs_lastmodifieddate</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Meeting description</t>
+          <t>Last modified date</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>html</t>
+          <t>date</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>The text description of the meeting</t>
+          <t>The date any property on this engagement was modified</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>engagement</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': False}</t>
+          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': True}</t>
         </is>
       </c>
       <c r="Q27" t="b">
@@ -2642,22 +2642,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2022-05-28T05:22:59.590Z</t>
+          <t>2023-05-02T18:17:33.119Z</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021-09-28T20:03:22.722Z</t>
+          <t>2019-12-12T14:41:17.489Z</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>hs_meeting_calendar_event_hash</t>
+          <t>hs_meeting_body</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Meeting calendar event hash</t>
+          <t>Meeting description</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2667,12 +2667,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>html</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>The unique hash for the meeting</t>
+          <t>The text description of the meeting</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
@@ -2722,22 +2722,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2022-05-28T05:23:14.911Z</t>
+          <t>2022-05-28T05:22:59.590Z</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021-09-28T20:01:39.237Z</t>
+          <t>2021-09-28T20:03:22.722Z</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>hs_meeting_change_id</t>
+          <t>hs_meeting_calendar_event_hash</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Meeting change id</t>
+          <t>Meeting calendar event hash</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2752,7 +2752,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>The unique change id for the meeting</t>
+          <t>The unique hash for the meeting</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2802,22 +2802,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2023-05-02T18:17:33.119Z</t>
+          <t>2022-05-28T05:23:14.911Z</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:17.175Z</t>
+          <t>2021-09-28T20:01:39.237Z</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>hs_meeting_created_from_link_id</t>
+          <t>hs_meeting_change_id</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Created From Link ID</t>
+          <t>Meeting change id</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Created From Link ID</t>
+          <t>The unique change id for the meeting</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2887,32 +2887,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:17.800Z</t>
+          <t>2019-12-12T14:41:17.175Z</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>hs_meeting_end_time</t>
+          <t>hs_meeting_created_from_link_id</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Meeting end time</t>
+          <t>Created From Link ID</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>The date when the meeting ends</t>
+          <t>Created From Link ID</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
@@ -2967,32 +2967,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:16.677Z</t>
+          <t>2019-12-12T14:41:17.800Z</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>hs_meeting_external_url</t>
+          <t>hs_meeting_end_time</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>External URL</t>
+          <t>Meeting end time</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>date</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>The external URL for the meeting</t>
+          <t>The date when the meeting ends</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
@@ -3047,17 +3047,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:17.364Z</t>
+          <t>2019-12-12T14:41:16.677Z</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>hs_meeting_location</t>
+          <t>hs_meeting_external_url</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Meeting location</t>
+          <t>External URL</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Where the meeting takes place</t>
+          <t>The external URL for the meeting</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
@@ -3127,32 +3127,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021-12-16T17:01:12.284Z</t>
+          <t>2019-12-12T14:41:17.364Z</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>hs_meeting_location_type</t>
+          <t>hs_meeting_location</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Location type</t>
+          <t>Meeting location</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>enumeration</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>The type of location for the meeting event</t>
+          <t>Where the meeting takes place</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>[{'label': 'Phone call', 'value': 'PHONE', 'displayOrder': 1, 'hidden': False}, {'label': 'Address', 'value': 'ADDRESS', 'displayOrder': 2, 'hidden': False}, {'label': 'Custom', 'value': 'CUSTOM', 'displayOrder': 3, 'hidden': False}, {'label': 'Video Conference', 'value': 'VCE', 'displayOrder': 4, 'hidden': False}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -3202,35 +3202,39 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-01-22T11:36:21.804Z</t>
+          <t>2023-05-02T18:17:33.119Z</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024-01-22T11:36:21.804Z</t>
+          <t>2021-12-16T17:01:12.284Z</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>hs_meeting_ms_teams_payload</t>
+          <t>hs_meeting_location_type</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>MsTeams payload</t>
+          <t>Location type</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enumeration</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>The type of location for the meeting event</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
           <t>meeting</t>
@@ -3238,7 +3242,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'label': 'Phone call', 'value': 'PHONE', 'displayOrder': 1, 'hidden': False}, {'label': 'Address', 'value': 'ADDRESS', 'displayOrder': 2, 'hidden': False}, {'label': 'Custom', 'value': 'CUSTOM', 'displayOrder': 3, 'hidden': False}, {'label': 'Video Conference', 'value': 'VCE', 'displayOrder': 4, 'hidden': False}]</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -3254,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
@@ -3278,39 +3282,35 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2022-05-28T05:24:46.870Z</t>
+          <t>2024-01-22T11:36:21.804Z</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2020-02-18T18:48:52.935Z</t>
+          <t>2024-01-22T11:36:21.804Z</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>hs_meeting_outcome</t>
+          <t>hs_meeting_ms_teams_payload</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Meeting outcome</t>
+          <t>MsTeams payload</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>enumeration</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>The outcome of this meeting</t>
-        </is>
-      </c>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
           <t>meeting</t>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>[{'label': 'Scheduled', 'value': 'SCHEDULED', 'displayOrder': 0, 'hidden': False}, {'label': 'Completed', 'value': 'COMPLETED', 'displayOrder': 1, 'hidden': False}, {'label': 'Rescheduled', 'value': 'RESCHEDULED', 'displayOrder': 2, 'hidden': False}, {'label': 'No Show', 'value': 'NO_SHOW', 'displayOrder': 3, 'hidden': False}, {'label': 'Canceled', 'value': 'CANCELED', 'displayOrder': 4, 'hidden': False}, {'label': 'Follow Up Scheduled', 'value': 'FOLLOW UP SCHEDULED', 'displayOrder': 5, 'hidden': False}, {'label': 'Unqualified', 'value': 'UNQUALIFIED', 'displayOrder': 6, 'hidden': False}, {'label': 'Disqualified', 'value': 'DISQUALIFIED', 'displayOrder': 7, 'hidden': False}, {'label': 'Quota Relief - Closed Won Deal', 'value': 'QUOTA RELIEF - CLOSED WON DEAL', 'displayOrder': 8, 'hidden': False}, {'label': 'Quota Relief - Activity Metrics', 'value': 'QUOTA RELIEF - ACTIVITY METRICS', 'displayOrder': 9, 'hidden': False}, {'label': 'Unresponsive', 'value': 'UNRESPONSIVE', 'displayOrder': 10, 'hidden': False}, {'label': 'Completed - Renewed', 'value': 'COMPLETED - RENEWED', 'displayOrder': 11, 'hidden': False}, {'label': 'Completed - Churned', 'value': 'COMPLETED - CHURNED', 'displayOrder': 12, 'hidden': False}, {'label': 'Customer Unresponsive', 'value': 'CUSTOMER UNRESPONSIVE', 'displayOrder': 13, 'hidden': False}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
@@ -3358,37 +3358,37 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2023-05-02T18:17:33.119Z</t>
+          <t>2022-05-28T05:24:46.870Z</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-04-26T19:09:49.411Z</t>
+          <t>2020-02-18T18:48:52.935Z</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>hs_meeting_payments_session_id</t>
+          <t>hs_meeting_outcome</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Payments session id</t>
+          <t>Meeting outcome</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enumeration</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>select</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>The payments session id for the meeting</t>
+          <t>The outcome of this meeting</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'label': 'Scheduled', 'value': 'SCHEDULED', 'displayOrder': 0, 'hidden': False}, {'label': 'Completed', 'value': 'COMPLETED', 'displayOrder': 1, 'hidden': False}, {'label': 'Rescheduled', 'value': 'RESCHEDULED', 'displayOrder': 2, 'hidden': False}, {'label': 'No Show', 'value': 'NO_SHOW', 'displayOrder': 3, 'hidden': False}, {'label': 'Canceled', 'value': 'CANCELED', 'displayOrder': 4, 'hidden': False}, {'label': 'Follow Up Scheduled', 'value': 'FOLLOW UP SCHEDULED', 'displayOrder': 5, 'hidden': False}, {'label': 'Unqualified', 'value': 'UNQUALIFIED', 'displayOrder': 6, 'hidden': False}, {'label': 'Disqualified', 'value': 'DISQUALIFIED', 'displayOrder': 7, 'hidden': False}, {'label': 'Quota Relief - Closed Won Deal', 'value': 'QUOTA RELIEF - CLOSED WON DEAL', 'displayOrder': 8, 'hidden': False}, {'label': 'Quota Relief - Activity Metrics', 'value': 'QUOTA RELIEF - ACTIVITY METRICS', 'displayOrder': 9, 'hidden': False}, {'label': 'Unresponsive', 'value': 'UNRESPONSIVE', 'displayOrder': 10, 'hidden': False}, {'label': 'Completed - Renewed', 'value': 'COMPLETED - RENEWED', 'displayOrder': 11, 'hidden': False}, {'label': 'Completed - Churned', 'value': 'COMPLETED - CHURNED', 'displayOrder': 12, 'hidden': False}, {'label': 'Customer Unresponsive', 'value': 'CUSTOMER UNRESPONSIVE', 'displayOrder': 13, 'hidden': False}]</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="b">
         <v>1</v>
@@ -3438,37 +3438,37 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-02-07T19:32:49.014Z</t>
+          <t>2023-05-02T18:17:33.119Z</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:17.439Z</t>
+          <t>2022-04-26T19:09:49.411Z</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>hs_meeting_pre_meeting_prospect_reminders</t>
+          <t>hs_meeting_payments_session_id</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Pre-meeting prospect reminders</t>
+          <t>Payments session id</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>enumeration</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>checkbox</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>A list of dates when meeting reminders should be sent to prospects</t>
+          <t>The payments session id for the meeting</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3518,22 +3518,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2023-05-02T18:17:33.119Z</t>
+          <t>2024-02-07T19:32:49.014Z</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:16.949Z</t>
+          <t>2019-12-12T14:41:17.439Z</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>hs_meeting_source</t>
+          <t>hs_meeting_pre_meeting_prospect_reminders</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Meeting source</t>
+          <t>Pre-meeting prospect reminders</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>checkbox</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>The source where the meeting was booked</t>
+          <t>A list of dates when meeting reminders should be sent to prospects</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>[{'label': 'CRM UI', 'value': 'CRM_UI', 'displayOrder': 0, 'hidden': False}, {'label': 'Integration', 'value': 'INTEGRATION', 'displayOrder': 1, 'hidden': False}, {'label': 'Meeting created from a proposed time', 'value': 'AVAILABILITY_SCHEDULE', 'displayOrder': 2, 'hidden': False}, {'label': 'Meeting created on calendar from CRM', 'value': 'BIDIRECTIONAL_API', 'displayOrder': 3, 'hidden': False}, {'label': 'Meeting synced from calendar to CRM', 'value': 'BIDIRECTIONAL_SYNC', 'displayOrder': 4, 'hidden': False}, {'label': 'Meetings (Embedded)', 'value': 'MEETINGS_EMBEDDED', 'displayOrder': 5, 'hidden': False}, {'label': 'Meetings (Public)', 'value': 'MEETINGS_PUBLIC', 'displayOrder': 6, 'hidden': False}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -3574,14 +3574,14 @@
         <v>0</v>
       </c>
       <c r="N39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="b">
         <v>1</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': True}</t>
+          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': False}</t>
         </is>
       </c>
       <c r="Q39" t="b">
@@ -3603,32 +3603,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:16.877Z</t>
+          <t>2019-12-12T14:41:16.949Z</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>hs_meeting_source_id</t>
+          <t>hs_meeting_source</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Source ID</t>
+          <t>Meeting source</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enumeration</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>select</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>The source ID of the meeting</t>
+          <t>The source where the meeting was booked</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'label': 'CRM UI', 'value': 'CRM_UI', 'displayOrder': 0, 'hidden': False}, {'label': 'Integration', 'value': 'INTEGRATION', 'displayOrder': 1, 'hidden': False}, {'label': 'Meeting created from a proposed time', 'value': 'AVAILABILITY_SCHEDULE', 'displayOrder': 2, 'hidden': False}, {'label': 'Meeting created on calendar from CRM', 'value': 'BIDIRECTIONAL_API', 'displayOrder': 3, 'hidden': False}, {'label': 'Meeting synced from calendar to CRM', 'value': 'BIDIRECTIONAL_SYNC', 'displayOrder': 4, 'hidden': False}, {'label': 'Meetings (Embedded)', 'value': 'MEETINGS_EMBEDDED', 'displayOrder': 5, 'hidden': False}, {'label': 'Meetings (Public)', 'value': 'MEETINGS_PUBLIC', 'displayOrder': 6, 'hidden': False}]</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -3654,14 +3654,14 @@
         <v>0</v>
       </c>
       <c r="N40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" t="b">
         <v>1</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': False}</t>
+          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': True}</t>
         </is>
       </c>
       <c r="Q40" t="b">
@@ -3683,32 +3683,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:17.070Z</t>
+          <t>2019-12-12T14:41:16.877Z</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>hs_meeting_start_time</t>
+          <t>hs_meeting_source_id</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Meeting start time</t>
+          <t>Source ID</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>The date when the meeting starts</t>
+          <t>The source ID of the meeting</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
@@ -3763,32 +3763,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:17.636Z</t>
+          <t>2019-12-12T14:41:17.070Z</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>hs_meeting_title</t>
+          <t>hs_meeting_start_time</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Meeting name</t>
+          <t>Meeting start time</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>date</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>The title of the meeting</t>
+          <t>The date when the meeting starts</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3843,17 +3843,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:16.747Z</t>
+          <t>2019-12-12T14:41:17.636Z</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>hs_meeting_web_conference_meeting_id</t>
+          <t>hs_meeting_title</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Web conference meeting ID</t>
+          <t>Meeting name</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>The meeting ID of the web conference</t>
+          <t>The title of the meeting</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" t="b">
         <v>1</v>
@@ -3918,42 +3918,42 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2023-08-10T16:36:24.207Z</t>
+          <t>2023-05-02T18:17:33.119Z</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:17.464Z</t>
+          <t>2019-12-12T14:41:16.747Z</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>hs_modified_by</t>
+          <t>hs_meeting_web_conference_meeting_id</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Updated by</t>
+          <t>Web conference meeting ID</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>The user who last updated the engagement</t>
+          <t>The meeting ID of the web conference</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>engagement</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" t="b">
         <v>0</v>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': True}</t>
+          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': False}</t>
         </is>
       </c>
       <c r="Q44" t="b">
@@ -3993,31 +3993,27 @@
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>hs_updated_by_user_id</t>
-        </is>
-      </c>
+      <c r="T44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2023-05-11T17:35:45.498Z</t>
+          <t>2023-08-10T16:36:24.207Z</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2023-03-29T20:59:28.356Z</t>
+          <t>2019-12-12T14:41:17.464Z</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>hs_outcome_canceled_count</t>
+          <t>hs_modified_by</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Outcome canceled count</t>
+          <t>Updated by</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -4032,12 +4028,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1 if outcome is canceled otherwise 0</t>
+          <t>The user who last updated the engagement</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>engagement</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4052,20 +4048,20 @@
         <v>0</v>
       </c>
       <c r="L45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="b">
         <v>0</v>
       </c>
       <c r="N45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="b">
         <v>1</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>{'archivable': True, 'readOnlyDefinition': False, 'readOnlyValue': False}</t>
+          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': True}</t>
         </is>
       </c>
       <c r="Q45" t="b">
@@ -4079,29 +4075,29 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr">
         <is>
-          <t>if (is_present(string(hs_meeting_outcome)) and string(hs_meeting_outcome) equals 'CANCELED') then 1 else 0</t>
+          <t>hs_updated_by_user_id</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2023-05-11T17:36:27.310Z</t>
+          <t>2023-05-11T17:35:45.498Z</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2023-03-29T21:11:22.728Z</t>
+          <t>2023-03-29T20:59:28.356Z</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>hs_outcome_completed_count</t>
+          <t>hs_outcome_canceled_count</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Outcome completed count</t>
+          <t>Outcome canceled count</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4116,7 +4112,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1 if outcome is completed otherwise 0</t>
+          <t>1 if outcome is canceled otherwise 0</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -4163,29 +4159,29 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr">
         <is>
-          <t>if (is_present(string(hs_meeting_outcome)) and string(hs_meeting_outcome) equals 'COMPLETED') then 1 else 0</t>
+          <t>if (is_present(string(hs_meeting_outcome)) and string(hs_meeting_outcome) equals 'CANCELED') then 1 else 0</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2023-05-11T17:36:47.527Z</t>
+          <t>2023-05-11T17:36:27.310Z</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2023-03-29T20:48:02.891Z</t>
+          <t>2023-03-29T21:11:22.728Z</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>hs_outcome_no_show_count</t>
+          <t>hs_outcome_completed_count</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Outcome no show count</t>
+          <t>Outcome completed count</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4200,7 +4196,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1 if outcome is no-show otherwise 0</t>
+          <t>1 if outcome is completed otherwise 0</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4247,29 +4243,29 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">
         <is>
-          <t>if (is_present(string(hs_meeting_outcome)) and string(hs_meeting_outcome) equals 'NO_SHOW') then 1 else 0</t>
+          <t>if (is_present(string(hs_meeting_outcome)) and string(hs_meeting_outcome) equals 'COMPLETED') then 1 else 0</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2023-05-11T17:37:10.473Z</t>
+          <t>2023-05-11T17:36:47.527Z</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2023-03-29T21:06:51.173Z</t>
+          <t>2023-03-29T20:48:02.891Z</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>hs_outcome_rescheduled_count</t>
+          <t>hs_outcome_no_show_count</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Outcome rescheduled count</t>
+          <t>Outcome no show count</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4284,7 +4280,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1 if outcome is rescheduled otherwise 0</t>
+          <t>1 if outcome is no-show otherwise 0</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4331,29 +4327,29 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr">
         <is>
-          <t>if (is_present(string(hs_meeting_outcome)) and string(hs_meeting_outcome) equals 'RESCHEDULED') then 1 else 0</t>
+          <t>if (is_present(string(hs_meeting_outcome)) and string(hs_meeting_outcome) equals 'NO_SHOW') then 1 else 0</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2023-05-11T17:37:28.894Z</t>
+          <t>2023-05-11T17:37:10.473Z</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2023-03-29T20:40:09.488Z</t>
+          <t>2023-03-29T21:06:51.173Z</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>hs_outcome_scheduled_count</t>
+          <t>hs_outcome_rescheduled_count</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Outcome scheduled count</t>
+          <t>Outcome rescheduled count</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4368,7 +4364,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1 if outcome is scheduled otherwise 0</t>
+          <t>1 if outcome is rescheduled otherwise 0</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -4415,49 +4411,49 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr">
         <is>
-          <t>if (is_present(string(hs_meeting_outcome)) and string(hs_meeting_outcome) equals 'SCHEDULED') then 1 else 0</t>
+          <t>if (is_present(string(hs_meeting_outcome)) and string(hs_meeting_outcome) equals 'RESCHEDULED') then 1 else 0</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2023-05-02T18:17:33.119Z</t>
+          <t>2023-05-11T17:37:28.894Z</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:16.723Z</t>
+          <t>2023-03-29T20:40:09.488Z</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>hs_product_name</t>
+          <t>hs_outcome_scheduled_count</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Product name</t>
+          <t>Outcome scheduled count</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>The name of the product associated with this engagement</t>
+          <t>1 if outcome is scheduled otherwise 0</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>engagement</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4478,14 +4474,14 @@
         <v>0</v>
       </c>
       <c r="N50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="b">
         <v>1</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': False}</t>
+          <t>{'archivable': True, 'readOnlyDefinition': False, 'readOnlyValue': False}</t>
         </is>
       </c>
       <c r="Q50" t="b">
@@ -4497,42 +4493,46 @@
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>if (is_present(string(hs_meeting_outcome)) and string(hs_meeting_outcome) equals 'SCHEDULED') then 1 else 0</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2023-08-14T20:25:50.928Z</t>
+          <t>2023-05-02T18:17:33.119Z</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:16.989Z</t>
+          <t>2019-12-12T14:41:16.723Z</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>hs_queue_membership_ids</t>
+          <t>hs_product_name</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Queue Memberships</t>
+          <t>Product name</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>enumeration</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>checkbox</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>The list of queues that contain this engagement</t>
+          <t>The name of the product associated with this engagement</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4552,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="b">
         <v>0</v>
@@ -4582,42 +4582,42 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2023-06-20T19:30:44.708Z</t>
+          <t>2023-08-14T20:25:50.928Z</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2023-05-24T16:51:48.850Z</t>
+          <t>2019-12-12T14:41:16.989Z</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>hs_roster_object_coordinates</t>
+          <t>hs_queue_membership_ids</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Roster object coordinates</t>
+          <t>Queue Memberships</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>object_coordinates</t>
+          <t>enumeration</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>checkbox</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>The ID of the associated roster object if the meeting was booked via a roster</t>
+          <t>The list of queues that contain this engagement</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>engagement</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4632,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="b">
         <v>0</v>
@@ -4662,27 +4662,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2023-05-02T18:17:33.119Z</t>
+          <t>2023-06-20T19:30:44.708Z</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:17.680Z</t>
+          <t>2023-05-24T16:51:48.850Z</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>hs_scheduled_tasks</t>
+          <t>hs_roster_object_coordinates</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Scheduled tasks</t>
+          <t>Roster object coordinates</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>json</t>
+          <t>object_coordinates</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4690,7 +4690,11 @@
           <t>text</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>The ID of the associated roster object if the meeting was booked via a roster</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
           <t>meeting</t>
@@ -4721,7 +4725,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': True}</t>
+          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': False}</t>
         </is>
       </c>
       <c r="Q53" t="b">
@@ -4738,39 +4742,35 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2023-08-31T14:03:46.256Z</t>
+          <t>2023-05-02T18:17:33.119Z</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2023-08-22T19:25:36.455Z</t>
+          <t>2019-12-12T14:41:17.680Z</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>hs_time_to_book_meeting_from_first_contact</t>
+          <t>hs_scheduled_tasks</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Time to book meeting from first contact</t>
+          <t>Scheduled tasks</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>json</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>The time it took to book a meeting from first outreach date of the associated contact</t>
-        </is>
-      </c>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
           <t>meeting</t>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="b">
         <v>1</v>
@@ -4813,51 +4813,47 @@
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>if (is_present(hs_contact_first_outreach_date) and hs_timestamp &gt; hs_contact_first_outreach_date) then (hs_timestamp - hs_contact_first_outreach_date) else 0</t>
-        </is>
-      </c>
+      <c r="T54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2023-05-02T18:17:33.119Z</t>
+          <t>2023-08-31T14:03:46.256Z</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:17.017Z</t>
+          <t>2023-08-22T19:25:36.455Z</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>hs_timestamp</t>
+          <t>hs_time_to_book_meeting_from_first_contact</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Activity date</t>
+          <t>Time to book meeting from first contact</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>number</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>The date that an engagement occurred</t>
+          <t>The time it took to book a meeting from first outreach date of the associated contact</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>engagement</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4885,7 +4881,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': False}</t>
+          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': True}</t>
         </is>
       </c>
       <c r="Q55" t="b">
@@ -4897,47 +4893,51 @@
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>if (is_present(hs_contact_first_outreach_date) and hs_timestamp &gt; hs_contact_first_outreach_date) then (hs_timestamp - hs_contact_first_outreach_date) else 0</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2023-10-20T19:44:13.422Z</t>
+          <t>2023-05-02T18:17:33.119Z</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2023-10-20T19:44:13.422Z</t>
+          <t>2019-12-12T14:41:17.017Z</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>hs_timezone</t>
+          <t>hs_timestamp</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Timezone</t>
+          <t>Activity date</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>date</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Timezone of the meeting booking</t>
+          <t>The date that an engagement occurred</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>engagement</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4958,14 +4958,14 @@
         <v>0</v>
       </c>
       <c r="N56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" t="b">
         <v>1</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': True}</t>
+          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': False}</t>
         </is>
       </c>
       <c r="Q56" t="b">
@@ -4982,22 +4982,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2024-06-04T17:36:57.481Z</t>
+          <t>2023-10-20T19:44:13.422Z</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:17.149Z</t>
+          <t>2023-10-20T19:44:13.422Z</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>hs_unique_id</t>
+          <t>hs_timezone</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Unique ID</t>
+          <t>Timezone</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -5012,12 +5012,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>The unique ID of the engagement</t>
+          <t>Timezone of the meeting booking</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>engagement</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" t="b">
         <v>1</v>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': False}</t>
+          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': True}</t>
         </is>
       </c>
       <c r="Q57" t="b">
@@ -5062,22 +5062,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2024-07-30T14:35:16.185Z</t>
+          <t>2024-06-04T17:36:57.481Z</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024-07-30T14:35:16.185Z</t>
+          <t>2019-12-12T14:41:17.149Z</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>hs_video_conference_url</t>
+          <t>hs_unique_id</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Video conference url</t>
+          <t>Unique ID</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -5092,12 +5092,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Optional property storing the video conference url for an online meeting</t>
+          <t>The unique ID of the engagement</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>engagement</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -5115,17 +5115,17 @@
         <v>0</v>
       </c>
       <c r="M58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="b">
         <v>1</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': True}</t>
+          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': False}</t>
         </is>
       </c>
       <c r="Q58" t="b">
@@ -5142,42 +5142,42 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2024-08-28T22:14:26.856Z</t>
+          <t>2024-07-30T14:35:16.185Z</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:17.703Z</t>
+          <t>2024-07-30T14:35:16.185Z</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>hubspot_owner_assigneddate</t>
+          <t>hs_video_conference_url</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Owner assigned date</t>
+          <t>Video conference url</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>The most recent timestamp of when an owner was assigned to this record. This value is set automatically by HubSpot.</t>
+          <t>Optional property storing the video conference url for an online meeting</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>engagement</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" t="b">
         <v>1</v>
@@ -5222,37 +5222,37 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2023-01-10T23:43:41.247Z</t>
+          <t>2024-08-28T22:14:26.856Z</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2019-12-12T14:41:16.795Z</t>
+          <t>2019-12-12T14:41:17.703Z</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>hubspot_owner_id</t>
+          <t>hubspot_owner_assigneddate</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Activity assigned to</t>
+          <t>Owner assigned date</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>enumeration</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>date</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>The user that the activity is assigned to in HubSpot. This can be any HubSpot user or Salesforce integration user, and can be set manually or via Workflows.</t>
+          <t>The most recent timestamp of when an owner was assigned to this record. This value is set automatically by HubSpot.</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -5266,26 +5266,26 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
       </c>
       <c r="L60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" t="b">
         <v>0</v>
       </c>
       <c r="N60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" t="b">
         <v>1</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': False}</t>
+          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': True}</t>
         </is>
       </c>
       <c r="Q60" t="b">
@@ -5296,152 +5296,160 @@
           <t>non_sensitive</t>
         </is>
       </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>OWNER</t>
-        </is>
-      </c>
+      <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>2023-01-10T23:43:41.247Z</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2019-12-12T14:41:16.795Z</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>hubspot_owner_id</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Activity assigned to</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>enumeration</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>The user that the activity is assigned to in HubSpot. This can be any HubSpot user or Salesforce integration user, and can be set manually or via Workflows.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>engagement</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>6</v>
+      </c>
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" t="b">
+        <v>1</v>
+      </c>
+      <c r="M61" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" t="b">
+        <v>0</v>
+      </c>
+      <c r="O61" t="b">
+        <v>1</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': False}</t>
+        </is>
+      </c>
+      <c r="Q61" t="b">
+        <v>0</v>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>non_sensitive</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>OWNER</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>2023-08-29T22:34:21.444Z</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>2019-12-12T14:41:17.244Z</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>hubspot_team_id</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>HubSpot Team</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>enumeration</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>select</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>The team of the owner of an engagement.</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>engagement</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
         <v>7</v>
       </c>
-      <c r="K61" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" t="b">
-        <v>1</v>
-      </c>
-      <c r="M61" t="b">
-        <v>0</v>
-      </c>
-      <c r="N61" t="b">
-        <v>0</v>
-      </c>
-      <c r="O61" t="b">
-        <v>1</v>
-      </c>
-      <c r="P61" t="inlineStr">
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" t="b">
+        <v>0</v>
+      </c>
+      <c r="O62" t="b">
+        <v>1</v>
+      </c>
+      <c r="P62" t="inlineStr">
         <is>
           <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': True}</t>
-        </is>
-      </c>
-      <c r="Q61" t="b">
-        <v>0</v>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>non_sensitive</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>hs_all_assigned_business_unit_ids</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Business units</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>enumeration</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>checkbox</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>The business units this record is assigned to.</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>meetingeventinformation</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="J62" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K62" t="b">
-        <v>0</v>
-      </c>
-      <c r="L62" t="b">
-        <v>1</v>
-      </c>
-      <c r="M62" t="b">
-        <v>0</v>
-      </c>
-      <c r="N62" t="b">
-        <v>1</v>
-      </c>
-      <c r="O62" t="b">
-        <v>1</v>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': False}</t>
         </is>
       </c>
       <c r="Q62" t="b">
@@ -5460,27 +5468,27 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>hs_created_by_user_id</t>
+          <t>hs_all_assigned_business_unit_ids</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Created by user ID</t>
+          <t>Business units</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enumeration</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>checkbox</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>The user who created this record. This value is set automatically by HubSpot.</t>
+          <t>The business units this record is assigned to.</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -5500,20 +5508,20 @@
         <v>0</v>
       </c>
       <c r="L63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" t="b">
         <v>0</v>
       </c>
       <c r="N63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" t="b">
         <v>1</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': True}</t>
+          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': False}</t>
         </is>
       </c>
       <c r="Q63" t="b">
@@ -5532,27 +5540,27 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>hs_merged_object_ids</t>
+          <t>hs_created_by_user_id</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Merged record IDs</t>
+          <t>Created by user ID</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>enumeration</t>
+          <t>number</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>checkbox</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>The list of record IDs that have been merged into this record. This value is set automatically by HubSpot.</t>
+          <t>The user who created this record. This value is set automatically by HubSpot.</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -5572,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="b">
         <v>0</v>
@@ -5604,27 +5612,27 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>hs_object_id</t>
+          <t>hs_merged_object_ids</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Record ID</t>
+          <t>Merged record IDs</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enumeration</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>checkbox</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>The unique ID for this record. This value is set automatically by HubSpot.</t>
+          <t>The list of record IDs that have been merged into this record. This value is set automatically by HubSpot.</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5644,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="b">
         <v>0</v>
@@ -5676,27 +5684,27 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>hs_object_source</t>
+          <t>hs_object_id</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Record creation source</t>
+          <t>Record ID</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Raw internal PropertySource present in the RequestMeta when this record was created.</t>
+          <t>The unique ID for this record. This value is set automatically by HubSpot.</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -5722,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" t="b">
         <v>1</v>
@@ -5748,12 +5756,12 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>hs_object_source_detail_1</t>
+          <t>hs_object_source</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Record source detail 1</t>
+          <t>Record creation source</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5768,7 +5776,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>First level of detail on how this record was created.</t>
+          <t>Raw internal PropertySource present in the RequestMeta when this record was created.</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -5794,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" t="b">
         <v>1</v>
@@ -5820,12 +5828,12 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>hs_object_source_detail_2</t>
+          <t>hs_object_source_detail_1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Record source detail 2</t>
+          <t>Record source detail 1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5840,7 +5848,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Second level of detail on how this record was created.</t>
+          <t>First level of detail on how this record was created.</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -5892,12 +5900,12 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>hs_object_source_detail_3</t>
+          <t>hs_object_source_detail_2</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Record source detail 3</t>
+          <t>Record source detail 2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5912,7 +5920,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Third level of detail on how this record was created.</t>
+          <t>Second level of detail on how this record was created.</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -5964,12 +5972,12 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>hs_object_source_id</t>
+          <t>hs_object_source_detail_3</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Record creation source ID</t>
+          <t>Record source detail 3</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5984,7 +5992,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Raw internal sourceId present in the RequestMeta when this record was created.</t>
+          <t>Third level of detail on how this record was created.</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -6010,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" t="b">
         <v>1</v>
@@ -6036,27 +6044,27 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>hs_object_source_label</t>
+          <t>hs_object_source_id</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Record source</t>
+          <t>Record creation source ID</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>enumeration</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>How this record was created.</t>
+          <t>Raw internal sourceId present in the RequestMeta when this record was created.</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -6076,13 +6084,13 @@
         <v>0</v>
       </c>
       <c r="L71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M71" t="b">
         <v>0</v>
       </c>
       <c r="N71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" t="b">
         <v>1</v>
@@ -6108,27 +6116,27 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>hs_object_source_user_id</t>
+          <t>hs_object_source_label</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Record creation source user ID</t>
+          <t>Record source</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enumeration</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>select</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Raw internal userId present in the RequestMeta when this record was created.</t>
+          <t>How this record was created.</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -6148,13 +6156,13 @@
         <v>0</v>
       </c>
       <c r="L72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" t="b">
         <v>0</v>
       </c>
       <c r="N72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72" t="b">
         <v>1</v>
@@ -6180,27 +6188,27 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>hs_read_only</t>
+          <t>hs_object_source_user_id</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Read only object</t>
+          <t>Record creation source user ID</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>number</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>booleancheckbox</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Determines whether a record can be edited by a user.</t>
+          <t>Raw internal userId present in the RequestMeta when this record was created.</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -6210,7 +6218,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>[{'label': 'True', 'value': 'true', 'displayOrder': 0, 'hidden': False}, {'label': 'False', 'value': 'false', 'displayOrder': 1, 'hidden': False}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -6252,27 +6260,27 @@
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>hs_shared_team_ids</t>
+          <t>hs_read_only</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Shared teams</t>
+          <t>Read only object</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>enumeration</t>
+          <t>bool</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>checkbox</t>
+          <t>booleancheckbox</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Additional teams whose users can access the record based on their permissions. This can be set manually or through Workflows or APIs.</t>
+          <t>Determines whether a record can be edited by a user.</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -6282,7 +6290,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'label': 'True', 'value': 'true', 'displayOrder': 0, 'hidden': False}, {'label': 'False', 'value': 'false', 'displayOrder': 1, 'hidden': False}]</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -6292,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74" t="b">
         <v>0</v>
@@ -6324,12 +6332,12 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>hs_shared_user_ids</t>
+          <t>hs_shared_team_ids</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Shared users</t>
+          <t>Shared teams</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -6344,7 +6352,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Additional users that can access the record based on their permissions. This can be set manually or through Workflows and APIs.</t>
+          <t>Additional teams whose users can access the record based on their permissions. This can be set manually or through Workflows or APIs.</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -6396,27 +6404,27 @@
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>hs_unique_creation_key</t>
+          <t>hs_shared_user_ids</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Unique creation key</t>
+          <t>Shared users</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enumeration</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>checkbox</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Unique property used for idempotent creates</t>
+          <t>Additional users that can access the record based on their permissions. This can be set manually or through Workflows and APIs.</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -6436,10 +6444,10 @@
         <v>0</v>
       </c>
       <c r="L76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N76" t="b">
         <v>1</v>
@@ -6468,27 +6476,27 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>hs_updated_by_user_id</t>
+          <t>hs_unique_creation_key</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Updated by user ID</t>
+          <t>Unique creation key</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>The user who last updated this record. This value is set automatically by HubSpot.</t>
+          <t>Unique property used for idempotent creates</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -6511,10 +6519,10 @@
         <v>0</v>
       </c>
       <c r="M77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77" t="b">
         <v>1</v>
@@ -6540,27 +6548,27 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>hs_user_ids_of_all_notification_followers</t>
+          <t>hs_updated_by_user_id</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>User IDs of all notification followers</t>
+          <t>Updated by user ID</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>enumeration</t>
+          <t>number</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>checkbox</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>The user IDs of all users that have clicked follow within the object to opt-in to getting follow notifications</t>
+          <t>The user who last updated this record. This value is set automatically by HubSpot.</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -6580,13 +6588,13 @@
         <v>0</v>
       </c>
       <c r="L78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M78" t="b">
         <v>0</v>
       </c>
       <c r="N78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78" t="b">
         <v>1</v>
@@ -6612,12 +6620,12 @@
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>hs_user_ids_of_all_notification_unfollowers</t>
+          <t>hs_user_ids_of_all_notification_followers</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>User IDs of all notification unfollowers</t>
+          <t>User IDs of all notification followers</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -6632,7 +6640,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>The user IDs of all object owners that have clicked unfollow within the object to opt-out of getting follow notifications</t>
+          <t>The user IDs of all users that have clicked follow within the object to opt-in to getting follow notifications</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -6684,12 +6692,12 @@
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>hs_user_ids_of_all_owners</t>
+          <t>hs_user_ids_of_all_notification_unfollowers</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>User IDs of all owners</t>
+          <t>User IDs of all notification unfollowers</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -6704,7 +6712,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>The user IDs of all owners of this record.</t>
+          <t>The user IDs of all object owners that have clicked unfollow within the object to opt-out of getting follow notifications</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -6756,27 +6764,27 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>hs_was_imported</t>
+          <t>hs_user_ids_of_all_owners</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Performed in an import</t>
+          <t>User IDs of all owners</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>bool</t>
+          <t>enumeration</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>booleancheckbox</t>
+          <t>checkbox</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Object is part of an import</t>
+          <t>The user IDs of all owners of this record.</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -6786,7 +6794,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>[{'label': 'True', 'value': 'true', 'displayOrder': 0, 'hidden': False}, {'label': 'False', 'value': 'false', 'displayOrder': 1, 'hidden': False}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -6796,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="L81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" t="b">
         <v>0</v>
@@ -6822,6 +6830,78 @@
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>hs_was_imported</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Performed in an import</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>bool</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>booleancheckbox</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Object is part of an import</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>meetingeventinformation</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>[{'label': 'True', 'value': 'true', 'displayOrder': 0, 'hidden': False}, {'label': 'False', 'value': 'false', 'displayOrder': 1, 'hidden': False}]</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K82" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="b">
+        <v>0</v>
+      </c>
+      <c r="N82" t="b">
+        <v>1</v>
+      </c>
+      <c r="O82" t="b">
+        <v>1</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>{'archivable': True, 'readOnlyDefinition': True, 'readOnlyValue': True}</t>
+        </is>
+      </c>
+      <c r="Q82" t="b">
+        <v>0</v>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>non_sensitive</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
